--- a/会計データ_テスト.xlsx
+++ b/会計データ_テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sue-t\Documents\Eclipse\workspace2019\SuiToChou2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF212D5D-6EE1-4577-B90E-CEE843A97FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9423E164-ACC6-4ACF-BE9E-CBCC21D0F819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="105" windowWidth="16440" windowHeight="28440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3075" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="1" r:id="rId1"/>

--- a/会計データ_テスト.xlsx
+++ b/会計データ_テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sue-t\Documents\Eclipse\workspace2019\SuiToChou2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9423E164-ACC6-4ACF-BE9E-CBCC21D0F819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BBC460-C49C-42A9-9AF9-86CDB25E3B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3075" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
   <si>
     <t>団体名</t>
   </si>
@@ -370,11 +370,32 @@
     <t>2021-04-01</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>++ 資産計 ++</t>
+  </si>
+  <si>
+    <t>++ 負債計 ++</t>
+  </si>
+  <si>
+    <t>** 純資産 **</t>
+  </si>
+  <si>
+    <t>++ 収入計 ++</t>
+  </si>
+  <si>
+    <t>++ 支出計 ++</t>
+  </si>
+  <si>
+    <t>** 収支 **</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,6 +476,7 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -760,16 +782,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="4" width="10" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -785,7 +808,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>44287</v>
       </c>
     </row>
@@ -915,75 +938,65 @@
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
-        <v>5000</v>
+        <v>2910122</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>2905122</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="3"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
         <v>19</v>
@@ -991,13 +1004,15 @@
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="3"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
         <v>19</v>
@@ -1005,9 +1020,11 @@
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
@@ -1019,55 +1036,49 @@
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3">
         <v>0</v>
       </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
         <v>0</v>
       </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="3">
         <v>0</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
+      <c r="A21" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -1075,19 +1086,19 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="3"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
         <v>22</v>
@@ -1095,13 +1106,15 @@
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="D23" s="3"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
         <v>22</v>
@@ -1109,9 +1122,11 @@
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
@@ -1123,7 +1138,7 @@
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
@@ -1134,6 +1149,86 @@
       <c r="F25" s="2" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3255,7 +3350,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/会計データ_テスト.xlsx
+++ b/会計データ_テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sue-t\Documents\Eclipse\workspace2019\SuiToChou2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BBC460-C49C-42A9-9AF9-86CDB25E3B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BDD9A0-F5EE-4539-A39F-EE3D8F7D7A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15630" yWindow="105" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>団体名</t>
   </si>
@@ -308,13 +308,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会場費</t>
-    <rPh sb="0" eb="3">
-      <t>カイジョウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>××ホテル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -346,16 +339,6 @@
     <t>吉田</t>
     <rPh sb="0" eb="2">
       <t>ヨシダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>佐藤建設</t>
-    <rPh sb="0" eb="2">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンセツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -784,7 +767,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -938,7 +921,7 @@
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -964,7 +947,7 @@
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -976,7 +959,7 @@
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -1078,7 +1061,7 @@
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -1208,7 +1191,7 @@
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3">
@@ -1220,7 +1203,7 @@
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3">
@@ -2656,8 +2639,8 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2716,51 +2699,29 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
-        <v>44326</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3">
-        <v>3000</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H49" si="0">H3+F4-G4</f>
-        <v>990654</v>
+        <f t="shared" ref="H4:H9" si="0">H3+F4-G4</f>
+        <v>987654</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <v>44367</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>290000</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>700654</v>
+        <v>987654</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2773,7 +2734,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>700654</v>
+        <v>987654</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2786,7 +2747,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>700654</v>
+        <v>987654</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2799,7 +2760,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>700654</v>
+        <v>987654</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2812,7 +2773,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>700654</v>
+        <v>987654</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2824,8 +2785,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" ref="H4:H49" si="1">H9+F10-G10</f>
+        <v>987654</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2837,8 +2798,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2850,8 +2811,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2863,8 +2824,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2876,8 +2837,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2889,8 +2850,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2902,8 +2863,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2915,8 +2876,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2928,8 +2889,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2941,8 +2902,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2954,8 +2915,8 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2967,8 +2928,8 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2980,8 +2941,8 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2993,8 +2954,8 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3006,8 +2967,8 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3019,8 +2980,8 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3032,8 +2993,8 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3045,8 +3006,8 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3058,8 +3019,8 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3071,8 +3032,8 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3084,8 +3045,8 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3097,8 +3058,8 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3110,8 +3071,8 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3123,8 +3084,8 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3136,8 +3097,8 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3149,8 +3110,8 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3162,8 +3123,8 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3175,8 +3136,8 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3188,8 +3149,8 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3201,8 +3162,8 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3214,8 +3175,8 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3227,8 +3188,8 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3240,8 +3201,8 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3253,8 +3214,8 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3266,8 +3227,8 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3279,8 +3240,8 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3292,8 +3253,8 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3305,8 +3266,8 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3318,8 +3279,8 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3331,8 +3292,8 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3">
-        <f t="shared" si="0"/>
-        <v>700654</v>
+        <f t="shared" si="1"/>
+        <v>987654</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3367,7 +3328,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3401,10 +3362,10 @@
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3">
@@ -3420,7 +3381,7 @@
         <v>5000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -3438,17 +3399,17 @@
         <v>10000</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
         <v>10000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">

--- a/会計データ_テスト.xlsx
+++ b/会計データ_テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sue-t\Documents\Eclipse\workspace2019\SuiToChou2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BDD9A0-F5EE-4539-A39F-EE3D8F7D7A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BBC460-C49C-42A9-9AF9-86CDB25E3B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="105" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
   <si>
     <t>団体名</t>
   </si>
@@ -308,6 +308,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>会場費</t>
+    <rPh sb="0" eb="3">
+      <t>カイジョウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>××ホテル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -339,6 +346,16 @@
     <t>吉田</t>
     <rPh sb="0" eb="2">
       <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤建設</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンセツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -767,7 +784,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -921,7 +938,7 @@
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -947,7 +964,7 @@
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -959,7 +976,7 @@
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -1061,7 +1078,7 @@
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -1191,7 +1208,7 @@
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3">
@@ -1203,7 +1220,7 @@
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3">
@@ -2639,8 +2656,8 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2699,29 +2716,51 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="6">
+        <v>44326</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>3000</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H9" si="0">H3+F4-G4</f>
-        <v>987654</v>
+        <f t="shared" ref="H4:H49" si="0">H3+F4-G4</f>
+        <v>990654</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="6">
+        <v>44367</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>290000</v>
+      </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>987654</v>
+        <v>700654</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2734,7 +2773,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>987654</v>
+        <v>700654</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2747,7 +2786,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>987654</v>
+        <v>700654</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2760,7 +2799,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>987654</v>
+        <v>700654</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2773,7 +2812,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>987654</v>
+        <v>700654</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2785,8 +2824,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
-        <f t="shared" ref="H4:H49" si="1">H9+F10-G10</f>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2798,8 +2837,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2811,8 +2850,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2824,8 +2863,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2837,8 +2876,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2850,8 +2889,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2863,8 +2902,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2876,8 +2915,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2889,8 +2928,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2902,8 +2941,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2915,8 +2954,8 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2928,8 +2967,8 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2941,8 +2980,8 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2954,8 +2993,8 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2967,8 +3006,8 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2980,8 +3019,8 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2993,8 +3032,8 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3006,8 +3045,8 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3019,8 +3058,8 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3032,8 +3071,8 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3045,8 +3084,8 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3058,8 +3097,8 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3071,8 +3110,8 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3084,8 +3123,8 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3097,8 +3136,8 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3110,8 +3149,8 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3123,8 +3162,8 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3136,8 +3175,8 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3149,8 +3188,8 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3162,8 +3201,8 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3175,8 +3214,8 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3188,8 +3227,8 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3201,8 +3240,8 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3214,8 +3253,8 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3227,8 +3266,8 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3240,8 +3279,8 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3253,8 +3292,8 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3266,8 +3305,8 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3279,8 +3318,8 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3292,8 +3331,8 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3">
-        <f t="shared" si="1"/>
-        <v>987654</v>
+        <f t="shared" si="0"/>
+        <v>700654</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3328,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3362,10 +3401,10 @@
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3">
@@ -3381,7 +3420,7 @@
         <v>5000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -3399,17 +3438,17 @@
         <v>10000</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
         <v>10000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">

--- a/会計データ_テスト.xlsx
+++ b/会計データ_テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sue-t\Documents\Eclipse\workspace2019\SuiToChou2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sue-t\Documents\workspace\SuiToChou2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BDD9A0-F5EE-4539-A39F-EE3D8F7D7A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AA653A-EAA6-49E0-9819-C56A3E7B5DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="105" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,23 @@
     <sheet name="普通預金_A銀行" sheetId="4" r:id="rId4"/>
     <sheet name="単一仕訳" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>団体名</t>
   </si>
@@ -350,10 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2021-04-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>++ 資産計 ++</t>
   </si>
   <si>
@@ -376,8 +383,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -447,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,8 +466,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -767,8 +776,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -791,7 +800,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>44287</v>
       </c>
     </row>
@@ -921,7 +930,7 @@
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -947,7 +956,7 @@
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -959,7 +968,7 @@
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -1061,7 +1070,7 @@
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -1191,7 +1200,7 @@
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3">
@@ -1203,7 +1212,7 @@
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3">
@@ -1228,7 +1237,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H5" sqref="H5:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1273,7 +1282,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="9">
         <v>43922</v>
       </c>
       <c r="B3" s="5"/>
@@ -1287,7 +1296,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>44291</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1305,12 +1314,12 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H49" si="0">H3+F4-G4</f>
+        <f t="shared" ref="H4:H49" ca="1" si="0">OFFSET(H4,-1,0)+F4-G4</f>
         <v>128456</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>44291</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1328,12 +1337,12 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>133456</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>44322</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1353,12 +1362,12 @@
         <v>1100</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>132356</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>44353</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1376,12 +1385,12 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1389,12 +1398,12 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1402,7 +1411,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1415,7 +1424,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1428,7 +1437,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1441,7 +1450,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1454,7 +1463,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1467,7 +1476,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1480,7 +1489,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1493,7 +1502,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1506,7 +1515,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1519,7 +1528,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1532,7 +1541,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1545,7 +1554,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1558,7 +1567,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1571,7 +1580,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1584,7 +1593,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1597,7 +1606,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1610,7 +1619,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1623,7 +1632,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1636,7 +1645,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1649,7 +1658,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1662,7 +1671,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1675,7 +1684,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1688,7 +1697,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1701,7 +1710,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1714,7 +1723,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1727,7 +1736,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1740,7 +1749,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1753,7 +1762,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1766,7 +1775,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1779,7 +1788,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1792,7 +1801,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1805,7 +1814,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1818,7 +1827,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1831,7 +1840,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1844,7 +1853,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1857,7 +1866,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1870,7 +1879,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1883,7 +1892,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1896,7 +1905,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1909,7 +1918,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1922,7 +1931,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>182356</v>
       </c>
     </row>
@@ -1942,7 +1951,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1987,7 +1996,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="9">
         <v>44287</v>
       </c>
       <c r="B3" s="5"/>
@@ -2001,7 +2010,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>44306</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2017,12 +2026,12 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H49" si="0">H3+F4-G4</f>
+        <f ca="1">OFFSET(H4,-1,0)+F4-G4</f>
         <v>799012</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>44306</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2040,12 +2049,12 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H5:H49" ca="1" si="0">OFFSET(H5,-1,0)+F5-G5</f>
         <v>804012</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>44353</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2061,12 +2070,12 @@
         <v>50000</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2074,12 +2083,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2087,12 +2096,12 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2100,12 +2109,12 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2113,12 +2122,12 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2126,12 +2135,12 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2139,12 +2148,12 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2152,12 +2161,12 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2165,12 +2174,12 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2178,12 +2187,12 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2191,12 +2200,12 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2204,12 +2213,12 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2217,12 +2226,12 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2230,12 +2239,12 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2243,12 +2252,12 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2256,12 +2265,12 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2269,7 +2278,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2282,7 +2291,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2295,7 +2304,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2308,7 +2317,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2321,7 +2330,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2334,7 +2343,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2347,7 +2356,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2360,7 +2369,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2373,7 +2382,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2386,7 +2395,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2399,7 +2408,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2412,7 +2421,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2425,7 +2434,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2438,7 +2447,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2451,7 +2460,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2464,7 +2473,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2477,7 +2486,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2490,7 +2499,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2503,7 +2512,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2516,7 +2525,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2529,7 +2538,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2542,7 +2551,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2555,7 +2564,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2568,7 +2577,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2581,7 +2590,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2594,7 +2603,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2607,7 +2616,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2620,7 +2629,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>754012</v>
       </c>
     </row>
@@ -2639,8 +2648,8 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2707,7 +2716,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H9" si="0">H3+F4-G4</f>
+        <f t="shared" ref="H4:H49" ca="1" si="0">OFFSET(H4,-1,0)+F4-G4</f>
         <v>987654</v>
       </c>
     </row>
@@ -2720,7 +2729,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2733,7 +2742,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2746,7 +2755,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2759,7 +2768,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2772,7 +2781,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2785,7 +2794,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
-        <f t="shared" ref="H4:H49" si="1">H9+F10-G10</f>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2798,7 +2807,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2811,7 +2820,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2824,7 +2833,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2837,7 +2846,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2850,7 +2859,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2863,7 +2872,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2876,7 +2885,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2889,7 +2898,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2902,7 +2911,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2915,7 +2924,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2928,7 +2937,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2941,7 +2950,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2954,7 +2963,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2967,7 +2976,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2980,7 +2989,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -2993,7 +3002,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3006,7 +3015,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3019,7 +3028,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3032,7 +3041,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3045,7 +3054,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3058,7 +3067,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3071,7 +3080,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3084,7 +3093,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3097,7 +3106,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3110,7 +3119,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3123,7 +3132,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3136,7 +3145,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3149,7 +3158,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3162,7 +3171,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3175,7 +3184,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3188,7 +3197,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3201,7 +3210,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3214,7 +3223,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3227,7 +3236,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3240,7 +3249,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3253,7 +3262,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3266,7 +3275,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3279,7 +3288,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3292,7 +3301,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>987654</v>
       </c>
     </row>
@@ -3312,7 +3321,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3361,8 +3370,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>72</v>
+      <c r="A3" s="10">
+        <v>44287</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
@@ -3386,7 +3395,7 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>44367</v>
       </c>
       <c r="B4" s="2" t="s">
